--- a/data/trans_camb/P23_2_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P23_2_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-3,67</t>
+          <t>-3,16</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-4,01</t>
+          <t>-3,78</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,7</t>
+          <t>3,27</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>4,52</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-4,35</t>
+          <t>2,45</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-1,86</t>
+          <t>-3,49</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-4,16</t>
+          <t>5,19</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,67</t>
+          <t>-0,21</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>3,57</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-1,29</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-3,6</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>4,26</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>3,03</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,33; 1,52</t>
+          <t>-8,45; 2,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,16; 1,38</t>
+          <t>-8,72; 1,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 10,04</t>
+          <t>-3,12; 8,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 4,58</t>
+          <t>-1,18; 10,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,6; 0,45</t>
+          <t>-2,18; 7,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 5,99</t>
+          <t>-3,86; 4,78</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 1,78</t>
+          <t>-7,93; 1,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-7,52; -0,76</t>
+          <t>-0,69; 10,02</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 5,97</t>
+          <t>-5,46; 4,79</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-1,16; 7,53</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-4,86; 2,09</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-7,19; -0,49</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>0,22; 7,9</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-1,38; 5,78</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-0,27; 6,64</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-18,67%</t>
+          <t>-16,62%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-20,4%</t>
+          <t>-19,88%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>23,91%</t>
+          <t>17,2%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,86%</t>
+          <t>20,28%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-16,68%</t>
+          <t>10,05%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-8,06%</t>
+          <t>-13,62%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-18,06%</t>
+          <t>20,26%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>11,56%</t>
+          <t>-0,69%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>13,23%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-5,73%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-15,99%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>18,97%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>7,47%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>11,77%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-40,2; 9,78</t>
+          <t>-38,51; 12,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-43,63; 8,01</t>
+          <t>-39,97; 7,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 59,48</t>
+          <t>-13,78; 53,25</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-15,96; 19,52</t>
+          <t>-4,5; 53,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-30,44; 2,14</t>
+          <t>-8,83; 34,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-12,38; 26,3</t>
+          <t>-14,11; 21,04</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-21,03; 8,18</t>
+          <t>-27,95; 4,75</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-29,51; -2,6</t>
+          <t>-2,31; 43,1</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 28,41</t>
+          <t>-16,61; 16,72</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-3,76; 30,16</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-20,22; 10,24</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-28,82; -2,14</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>0,86; 37,0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-4,86; 23,49</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-1,11; 26,87</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,88</t>
+          <t>-1,09</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,47</t>
+          <t>8,32</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,86</t>
+          <t>3,48</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,4</t>
+          <t>6,41</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-1,89</t>
+          <t>2,43</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,86</t>
+          <t>-2,14</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,66</t>
+          <t>7,46</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,72</t>
+          <t>-6,25</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>3,28</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1,67</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-1,65</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>7,87</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-1,38</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>4,9</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 6,63</t>
+          <t>-4,38; 6,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 5,02</t>
+          <t>-6,64; 4,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 11,58</t>
+          <t>1,47; 14,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 8,49</t>
+          <t>-4,59; 11,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,0; 3,23</t>
+          <t>-1,89; 14,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,78; 5,89</t>
+          <t>-3,11; 7,88</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 5,97</t>
+          <t>-8,05; 3,38</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,77; 2,15</t>
+          <t>1,1; 13,29</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 6,55</t>
+          <t>-13,98; 2,21</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-5,29; 11,85</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-2,55; 5,84</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-5,67; 2,78</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>3,38; 12,31</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-6,99; 3,86</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-0,96; 11,1</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,14%</t>
+          <t>5,38%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-5,18%</t>
+          <t>-6,35%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>32,02%</t>
+          <t>48,48%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11,14%</t>
+          <t>13,66%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-9,37%</t>
+          <t>28,42%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-7,36%</t>
+          <t>9,41%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>8,69%</t>
+          <t>-8,29%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-7,77%</t>
+          <t>28,91%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>8,02%</t>
+          <t>-18,78%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>13,83%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>7,74%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-7,64%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>36,55%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-4,71%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>21,19%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-27,22; 45,78</t>
+          <t>-22,36; 46,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-33,39; 38,68</t>
+          <t>-32,42; 32,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-13,18; 77,74</t>
+          <t>6,33; 99,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-8,16; 37,75</t>
+          <t>-16,27; 53,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-27,94; 14,3</t>
+          <t>-8,51; 78,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-31,23; 25,48</t>
+          <t>-11,02; 35,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-8,83; 30,15</t>
+          <t>-27,35; 14,44</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-23,84; 12,16</t>
+          <t>3,31; 56,35</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-13,94; 33,98</t>
+          <t>-38,7; 8,39</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-18,68; 58,95</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-10,35; 30,88</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-23,57; 14,82</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>13,93; 63,58</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-22,43; 13,82</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-3,82; 53,7</t>
         </is>
       </c>
     </row>
@@ -1064,45 +1352,75 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,78</t>
+          <t>-0,9</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-4,87</t>
+          <t>-4,47</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>13,74</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-4,91</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-5,36</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>-5,01</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-5,17</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1,97</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-3,33</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-5,1</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-2,91</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-4,78</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>7,93</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1117,45 +1435,75 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-12,04; 11,04</t>
+          <t>-11,84; 10,77</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-17,41; 8,51</t>
+          <t>-15,18; 10,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>-0,17; 30,97</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-14,52; 4,3</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-14,61; 5,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
+          <t>-15,43; 4,25</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-15,34; 3,9</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-9,51; 13,67</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-10,27; 4,44</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-12,84; 2,9</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-9,94; 4,45</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-11,95; 3,64</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-1,44; 18,19</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1170,45 +1518,75 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-7,34%</t>
+          <t>-3,83%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-20,05%</t>
+          <t>-19,12%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>58,77%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-18,47%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-20,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>-18,75%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-19,33%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>7,37%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-13,08%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-20,05%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-11,64%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-19,12%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>31,71%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1223,45 +1601,75 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-39,56; 61,32</t>
+          <t>-39,21; 67,06</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-58,08; 48,54</t>
+          <t>-54,34; 60,81</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>-0,84; 186,13</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-47,45; 18,96</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-46,55; 27,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
+          <t>-47,5; 20,06</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-46,83; 19,82</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-29,04; 65,71</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-36,62; 21,86</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-43,99; 15,57</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-33,99; 22,95</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-42,04; 16,7</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-5,5; 82,63</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,62</t>
+          <t>-1,26</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-2,85</t>
+          <t>-2,79</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,74</t>
+          <t>6,59</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>1,92</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-3,73</t>
+          <t>3,39</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,57</t>
+          <t>-3,17</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-3,29</t>
+          <t>5,71</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2,45</t>
+          <t>-1,72</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>3,5</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-0,32</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-2,97</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>6,13</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0,04</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>3,45</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 1,98</t>
+          <t>-4,75; 2,3</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,49; 1,01</t>
+          <t>-6,55; 1,25</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,55; 8,7</t>
+          <t>2,74; 10,94</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 3,63</t>
+          <t>-2,77; 6,47</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,86; -0,33</t>
+          <t>-1,34; 7,39</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 3,96</t>
+          <t>-2,46; 4,08</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 1,87</t>
+          <t>-6,49; -0,25</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-6,01; -0,69</t>
+          <t>1,62; 9,39</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 5,32</t>
+          <t>-5,77; 2,71</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-0,63; 7,68</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-2,84; 2,02</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-5,62; -0,83</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>3,37; 9,23</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-2,89; 3,36</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>0,33; 6,44</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-8,42%</t>
+          <t>-6,68%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-14,88%</t>
+          <t>-14,82%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>24,73%</t>
+          <t>35,03%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>7,57%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-14,34%</t>
+          <t>14,18%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-2,52%</t>
+          <t>-12,28%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-14,5%</t>
+          <t>22,11%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>10,79%</t>
+          <t>-5,44%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>13,3%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-1,44%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-13,25%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>27,36%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>0,16%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>13,74%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,97 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-24,77; 12,42</t>
+          <t>-23,26; 13,55</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-31,22; 5,81</t>
+          <t>-31,45; 7,2</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,34; 50,39</t>
+          <t>12,56; 64,42</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-10,82; 15,22</t>
+          <t>-10,02; 28,15</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-24,65; -1,37</t>
+          <t>-5,09; 34,16</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-13,29; 16,46</t>
+          <t>-8,79; 16,98</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-12,81; 8,96</t>
+          <t>-23,69; -1,08</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-24,97; -3,43</t>
+          <t>5,59; 38,75</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 24,67</t>
+          <t>-16,92; 9,53</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-2,22; 31,23</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-12,01; 9,42</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-23,36; -3,85</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>14,24; 42,92</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-9,58; 12,65</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>1,13; 26,9</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
